--- a/data/trans_dic/P42C_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P42C_R-Clase-trans_dic.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3653953754350498</v>
+        <v>0.3677777645553469</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2812367836879815</v>
+        <v>0.281745586160291</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4097221814594603</v>
+        <v>0.4085397564936228</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4907614309392236</v>
+        <v>0.4896996152384984</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3914120457423458</v>
+        <v>0.3932477569842079</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5083962767321185</v>
+        <v>0.5084807544866231</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3564509943934644</v>
+        <v>0.3493575325675902</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2258746270644797</v>
+        <v>0.2244911356137581</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3817247836450553</v>
+        <v>0.3768167887119027</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4835449574231272</v>
+        <v>0.4767157191587424</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3261441067381077</v>
+        <v>0.3270824076683177</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4803651034700355</v>
+        <v>0.4854713098627513</v>
       </c>
     </row>
     <row r="10">
@@ -711,13 +711,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2091485308968905</v>
+        <v>0.2109768225833426</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06493307045776385</v>
+        <v>0.06796698390467777</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1606113555763906</v>
+        <v>0.1622810105975298</v>
       </c>
     </row>
     <row r="12">
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3339537910390977</v>
+        <v>0.3375143088653195</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1756786876937344</v>
+        <v>0.1690609920868152</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2973722947605786</v>
+        <v>0.3050508968592143</v>
       </c>
     </row>
     <row r="13">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1865844856863035</v>
+        <v>0.1832018975022416</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.115005747771488</v>
+        <v>0.1185882110259228</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1756714939474546</v>
+        <v>0.1751099408686039</v>
       </c>
     </row>
     <row r="15">
@@ -783,13 +783,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2595673672924189</v>
+        <v>0.2563186504454247</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1710804323196422</v>
+        <v>0.1682587336413209</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2462754313594288</v>
+        <v>0.2409599552701674</v>
       </c>
     </row>
     <row r="16">
@@ -821,13 +821,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1281895067782327</v>
+        <v>0.1287194215540021</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04674177244613777</v>
+        <v>0.04679646882593954</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.09347573455123326</v>
+        <v>0.09272966944163394</v>
       </c>
     </row>
     <row r="18">
@@ -838,13 +838,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1892015778924945</v>
+        <v>0.1918483188891732</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.08839407758284443</v>
+        <v>0.09046636642611543</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1444722726723442</v>
+        <v>0.144618800071844</v>
       </c>
     </row>
     <row r="19">
@@ -876,13 +876,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1492579289562902</v>
+        <v>0.1485747311608759</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.0883858440218412</v>
+        <v>0.08695511740518902</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1081571888091394</v>
+        <v>0.1056108380684113</v>
       </c>
     </row>
     <row r="21">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2071374431259573</v>
+        <v>0.2109172321181565</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.138369620877886</v>
+        <v>0.1356141553223263</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1734678436862708</v>
+        <v>0.1721970884526039</v>
       </c>
     </row>
     <row r="22">
@@ -920,7 +920,7 @@
         <v>0.1544612050450725</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.237863878500106</v>
+        <v>0.2378638785001059</v>
       </c>
     </row>
     <row r="23">
@@ -931,13 +931,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2232039416368496</v>
+        <v>0.2203494523889021</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1401883282357789</v>
+        <v>0.1412151715908144</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2218003498865963</v>
+        <v>0.2205702043470066</v>
       </c>
     </row>
     <row r="24">
@@ -948,13 +948,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2575466860059473</v>
+        <v>0.2553594726202997</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.168316532235345</v>
+        <v>0.1694818217860105</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.255015380303774</v>
+        <v>0.2537189205065439</v>
       </c>
     </row>
     <row r="25">
@@ -1091,13 +1091,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>103588</v>
+        <v>104264</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>86746</v>
+        <v>86903</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>121880</v>
+        <v>121529</v>
       </c>
     </row>
     <row r="7">
@@ -1108,13 +1108,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>139129</v>
+        <v>138828</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>120729</v>
+        <v>121296</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>151233</v>
+        <v>151258</v>
       </c>
     </row>
     <row r="8">
@@ -1163,13 +1163,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>100642</v>
+        <v>98639</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>75475</v>
+        <v>75013</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>101451</v>
+        <v>100147</v>
       </c>
     </row>
     <row r="11">
@@ -1180,13 +1180,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>136526</v>
+        <v>134598</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>108979</v>
+        <v>109293</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>127667</v>
+        <v>129024</v>
       </c>
     </row>
     <row r="12">
@@ -1235,13 +1235,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>45026</v>
+        <v>45420</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>9208</v>
+        <v>9638</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>16871</v>
+        <v>17046</v>
       </c>
     </row>
     <row r="15">
@@ -1252,13 +1252,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>71895</v>
+        <v>72661</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>24913</v>
+        <v>23975</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>31236</v>
+        <v>32043</v>
       </c>
     </row>
     <row r="16">
@@ -1307,13 +1307,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>115060</v>
+        <v>112974</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>79241</v>
+        <v>81710</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>87550</v>
+        <v>87270</v>
       </c>
     </row>
     <row r="19">
@@ -1324,13 +1324,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>160066</v>
+        <v>158063</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>117878</v>
+        <v>115934</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>122737</v>
+        <v>120088</v>
       </c>
     </row>
     <row r="20">
@@ -1379,13 +1379,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>76648</v>
+        <v>76965</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>26536</v>
+        <v>26567</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>44515</v>
+        <v>44159</v>
       </c>
     </row>
     <row r="23">
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>113129</v>
+        <v>114712</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>50182</v>
+        <v>51359</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>68800</v>
+        <v>68870</v>
       </c>
     </row>
     <row r="24">
@@ -1451,13 +1451,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>110469</v>
+        <v>109963</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>64050</v>
+        <v>63013</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>45216</v>
+        <v>44151</v>
       </c>
     </row>
     <row r="27">
@@ -1468,13 +1468,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>153307</v>
+        <v>156104</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>100271</v>
+        <v>98274</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>72519</v>
+        <v>71988</v>
       </c>
     </row>
     <row r="28">
@@ -1523,13 +1523,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>610650</v>
+        <v>602841</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>387732</v>
+        <v>390572</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>457114</v>
+        <v>454579</v>
       </c>
     </row>
     <row r="31">
@@ -1540,13 +1540,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>704606</v>
+        <v>698622</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>465529</v>
+        <v>468752</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>525568</v>
+        <v>522896</v>
       </c>
     </row>
     <row r="32">
